--- a/21_오늘의_증권시황/Data/Output/2025년/2025년03월/Today_Stock_Information_2025-03-02.xlsx
+++ b/21_오늘의_증권시황/Data/Output/2025년/2025년03월/Today_Stock_Information_2025-03-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8A7944-A002-40B3-B75B-09FA056B75DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09CCC4-8572-43A0-B886-D508D712BFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" tabRatio="652" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1040">
   <si>
     <t>시가총액</t>
   </si>
@@ -481,7 +481,7 @@
     <t>https://n.news.naver.com/mnews/article/015/0005101050</t>
   </si>
   <si>
-    <t>삼양식품의 ‘불닭볶음면’을 앞세운 K라면이 일시적 유행을 넘어 세계 최대 라면 소비국의 일상에 파고들고 있다. 대(對)중국 월간 수출액..</t>
+    <t>삼양식품의 ‘불닭볶음면’을 앞세운 K라면이 일시적 유행을 넘어 세계 최대 라면 소비국의 일상을 파고들고 있다. 대(對)중국 월간 수출액..</t>
   </si>
   <si>
     <t xml:space="preserve">한국경제 </t>
@@ -514,7 +514,7 @@
     <t>https://n.news.naver.com/mnews/article/015/0005101002</t>
   </si>
   <si>
-    <t>코스닥 상장사 파마리서치의 의료기기 브랜드 ‘리쥬란(rejuran)’의 글로벌 구글 검색량이 최근 스위스 IBSA의 ‘프로필로(prof..</t>
+    <t>코스닥시장 상장사 파마리서치의 의료기기 브랜드 ‘리쥬란(rejuran)’의 글로벌 구글 검색량이 최근 스위스 IBSA의 ‘프로필로(pr..</t>
   </si>
   <si>
     <t>美 고용보고서·中 양회 주목</t>
@@ -1105,7 +1105,7 @@
     <t xml:space="preserve">더팩트 </t>
   </si>
   <si>
-    <t>어제의 주요 증권 뉴스들을 보면, K-딸기의 신품종이 미국 시장에서 크게 인기를 끌고 있으며, 국내외 주요 이슈로는 '김치 프리미엄'에 대한 주의와 코스피의 변동성, 외국인의 지속적인 순매도 현상, 시장주도성 양회의 주목, 박사학위 소지자의 취업 문제, 중국 시장에 파고든 K-라면의 성공 등 다양한 경제 사건들이 동시에 맞물려 있습니다.</t>
+    <t>"최근 증권 뉴스들에 따르면, 높은 '김치 프리미엄'과 지속되는 외국인의 코스피 순매도, 중국 양회 및 미국 고용보고서에 대한 시장의 주목, 그리고 K-딸기의 미국 시장 내 인기 상승과 삼성전자의 지속적인 주가 부진 문제가 두드러지는 가운데, 여러 국내외 요인들이 한국 증시에 영향을 미치고 있습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2761,6 +2761,555 @@
   </si>
   <si>
     <t>https://finance.naver.com/sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005553567</t>
+  </si>
+  <si>
+    <t>[특징주]태림포장, '아쎄따'와 군용 골판지 드론 개발에 급등</t>
+  </si>
+  <si>
+    <t>아시아경제</t>
+  </si>
+  <si>
+    <t>2025.02.28 09:24</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250228801481</t>
+  </si>
+  <si>
+    <t>주주총회소집결의</t>
+  </si>
+  <si>
+    <t>2025.02.28</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250228801242</t>
+  </si>
+  <si>
+    <t>매출액또는손익구조30%(대규모법인은15%)이상변경</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250228001881</t>
+  </si>
+  <si>
+    <t>대규모기업집단현황공시[분기별공시(개별회사용)]</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250214001693</t>
+  </si>
+  <si>
+    <t>지급수단별ㆍ지급기간별지급금액및분쟁조정기구에관한사항</t>
+  </si>
+  <si>
+    <t>2025.02.14</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250212000468</t>
+  </si>
+  <si>
+    <t>동일인등출자계열회사와의상품ㆍ용역거래변경</t>
+  </si>
+  <si>
+    <t>2025.02.12</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/030/0003288720</t>
+  </si>
+  <si>
+    <t>[ET라씨로]쿠쿠홈시스, 4분기 호실적에 상승세</t>
+  </si>
+  <si>
+    <t>전자신문</t>
+  </si>
+  <si>
+    <t>2025.02.28 14:46</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/030/0003288708</t>
+  </si>
+  <si>
+    <t>쿠쿠, 소비자 선정 최고 브랜드 대상 '4관왕'</t>
+  </si>
+  <si>
+    <t>2025.02.28 14:26</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227801329</t>
+  </si>
+  <si>
+    <t>연결재무제표기준영업(잠정)실적(공정공시)</t>
+  </si>
+  <si>
+    <t>2025.02.27</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250226800624</t>
+  </si>
+  <si>
+    <t>성문전자</t>
+  </si>
+  <si>
+    <t>2025.02.26</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005100486</t>
+  </si>
+  <si>
+    <t>트럼프 관세 압박에 희토류株 동반 강세</t>
+  </si>
+  <si>
+    <t>한국경제</t>
+  </si>
+  <si>
+    <t>2025.02.28 10:08</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250214800717</t>
+  </si>
+  <si>
+    <t>한국경제TV</t>
+  </si>
+  <si>
+    <t>2025.03.02 08:42</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250228801578</t>
+  </si>
+  <si>
+    <t>조회공시요구(현저한시황변동)에대한답변(중요공시대상없음)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227800956</t>
+  </si>
+  <si>
+    <t>조회공시요구(현저한시황변동)</t>
+  </si>
+  <si>
+    <t>유가증권시장본부</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250225800714</t>
+  </si>
+  <si>
+    <t>타인에대한채무보증결정</t>
+  </si>
+  <si>
+    <t>2025.02.25</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250219800595</t>
+  </si>
+  <si>
+    <t>타인에대한채무보증결정 (자회사의 주요경영사항)</t>
+  </si>
+  <si>
+    <t>2025.02.19</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250219800587</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250228801516</t>
+  </si>
+  <si>
+    <t>투자유의안내</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250228003327</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250214801136</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250214801044</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250214001817</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250228004805</t>
+  </si>
+  <si>
+    <t>[기재정정]주주총회소집공고</t>
+  </si>
+  <si>
+    <t>유화증권</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250226002688</t>
+  </si>
+  <si>
+    <t>의결권대리행사권유참고서류</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250225801389</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250225801357</t>
+  </si>
+  <si>
+    <t>현금ㆍ현물배당결정</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005953574</t>
+  </si>
+  <si>
+    <t>‘美 관세 정책 불확실성’ 속 3%대 하락…11거래일 만에 740선[코...</t>
+  </si>
+  <si>
+    <t>이데일리</t>
+  </si>
+  <si>
+    <t>2025.02.28 15:44</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005953474</t>
+  </si>
+  <si>
+    <t>코스닥, 트럼프發 관세 정책 혼란 속 3%대 약세…750선 깨져</t>
+  </si>
+  <si>
+    <t>2025.02.28 14:13</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/082/0001313903</t>
+  </si>
+  <si>
+    <t>경영 복귀 강진모 회장 1년, 아이티센 지난해 역대 실적 달성</t>
+  </si>
+  <si>
+    <t>부산일보</t>
+  </si>
+  <si>
+    <t>2025.02.28 09:44</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/421/0008103609</t>
+  </si>
+  <si>
+    <t>"순이익 108억인데 시총은 430억…아이티센엔텍 재평가 필요"[줌인e...</t>
+  </si>
+  <si>
+    <t>뉴스1</t>
+  </si>
+  <si>
+    <t>2025.02.28 09:34</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227900623</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227900621</t>
+  </si>
+  <si>
+    <t>매출액또는손익구조30%(대규모법인은15%)이상변동</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005553590</t>
+  </si>
+  <si>
+    <t>[특징주]TSMC-메타-퓨리오사 '삼각연대'…포바이포, 핵심 기술 파트...</t>
+  </si>
+  <si>
+    <t>2025.02.28 09:36</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250217901191</t>
+  </si>
+  <si>
+    <t>2025.02.17</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227006536</t>
+  </si>
+  <si>
+    <t>[기재정정]주요사항보고서(회사합병결정)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227900880</t>
+  </si>
+  <si>
+    <t>[기재정정]주주총회소집결의 (임시주주총회)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227900877</t>
+  </si>
+  <si>
+    <t>[기재정정]주주명부폐쇄기간또는기준일설정</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250221002920</t>
+  </si>
+  <si>
+    <t>임원ㆍ주요주주특정증권등소유상황보고서</t>
+  </si>
+  <si>
+    <t>정재준</t>
+  </si>
+  <si>
+    <t>2025.02.24</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250221002857</t>
+  </si>
+  <si>
+    <t>주식등의대량보유상황보고서(일반)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250217901206</t>
+  </si>
+  <si>
+    <t>조회공시요구(현저한시황변동)에대한답변(미확정)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250214002741</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250214002740</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250214901316</t>
+  </si>
+  <si>
+    <t>코스닥시장본부</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250211901418</t>
+  </si>
+  <si>
+    <t>2025.02.11</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250210000698</t>
+  </si>
+  <si>
+    <t>주식등의대량보유상황보고서(약식)</t>
+  </si>
+  <si>
+    <t>김복덕</t>
+  </si>
+  <si>
+    <t>2025.02.10</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005100475</t>
+  </si>
+  <si>
+    <t>비엘팜텍, 3연속 상한가…무상증자 권리락 착시 효과</t>
+  </si>
+  <si>
+    <t>2025.02.28 09:50</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227006754</t>
+  </si>
+  <si>
+    <t>송상근</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227006686</t>
+  </si>
+  <si>
+    <t>신동진</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227006590</t>
+  </si>
+  <si>
+    <t>박영철</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227006516</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227900927</t>
+  </si>
+  <si>
+    <t>전환가액의조정</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250225901160</t>
+  </si>
+  <si>
+    <t>권리락 (무상증자)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250218900725</t>
+  </si>
+  <si>
+    <t>2025.02.18</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250212900769</t>
+  </si>
+  <si>
+    <t>주주명부폐쇄기간또는기준일설정</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250212900719</t>
+  </si>
+  <si>
+    <t>주권매매거래정지 (무상증자)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250212000715</t>
+  </si>
+  <si>
+    <t>주요사항보고서(무상증자결정)</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/008/0005159792</t>
+  </si>
+  <si>
+    <t>엔비디아 추월한 효율…메타이어 TSMC도 퓨리오사AI '눈독'</t>
+  </si>
+  <si>
+    <t>머니투데이</t>
+  </si>
+  <si>
+    <t>2025.02.28 12:30</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250217001612</t>
+  </si>
+  <si>
+    <t>신탁계약에의한취득상황보고서</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250207000534</t>
+  </si>
+  <si>
+    <t>신탁계약해지결과보고서</t>
+  </si>
+  <si>
+    <t>2025.02.07</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250204000031</t>
+  </si>
+  <si>
+    <t>이성훈</t>
+  </si>
+  <si>
+    <t>2025.02.04</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250224001146</t>
+  </si>
+  <si>
+    <t>주요사항보고서(자기주식처분결정)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250218000636</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250213900362</t>
+  </si>
+  <si>
+    <t>2025.02.13</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250213900321</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250226900851</t>
+  </si>
+  <si>
+    <t>[기재정정]매출액또는손익구조30%(대규모법인은15%)이상변동</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250224004038</t>
+  </si>
+  <si>
+    <t>큐로홀딩스</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250218900512</t>
+  </si>
+  <si>
+    <t>[기재정정]단일판매ㆍ공급계약체결</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250217001473</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250227006336</t>
+  </si>
+  <si>
+    <t>이환</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250213900994</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005953475</t>
+  </si>
+  <si>
+    <t>엑스페릭스, 퓨리오사와 AI 가속기 최적화 협력…글로벌 경쟁 우위 선....</t>
+  </si>
+  <si>
+    <t>2025.02.28 14:16</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250228006440</t>
+  </si>
+  <si>
+    <t>[첨부정정]주요사항보고서(타법인주식및출자증권양도결정)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250226900005</t>
+  </si>
+  <si>
+    <t>주권관련사채권의취득결정</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250226900003</t>
+  </si>
+  <si>
+    <t>타법인주식및출자증권처분결정</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250225005272</t>
+  </si>
+  <si>
+    <t>합병등종료보고서 (자산양수도)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250225901282</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250211901275</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250205000286</t>
+  </si>
+  <si>
+    <t>[기재정정]주식매수선택권부여에관한신고</t>
+  </si>
+  <si>
+    <t>2025.02.05</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250205000277</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250205000270</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250226900571</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250226900566</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20250226900548</t>
   </si>
 </sst>
 </file>
@@ -3383,17 +3932,23 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3419,14 +3974,8 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4591,7 +5140,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE35BDD-01BC-4F31-A0BF-A8FA8E1B6C5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{356252C2-9B6A-4B0D-B75D-C4D01B3BA3B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4641,7 +5190,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987F8616-3757-4B8F-ABD6-F634977039F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A4BBAF-4B08-4269-828A-A792DF9D4106}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4691,7 +5240,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2B971F-6D8D-4AE0-BDE2-B1315D27B254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099FE966-9E14-4A9B-8427-48C151DD6ECC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +5290,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F51528-6E8A-4AF6-AEEE-22552450C64D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E018A2D-E669-49CE-BB0A-4A299FE4B88D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4791,7 +5340,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04AD2F3-4BC4-409A-990D-2D54E70C1131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E017F9-2B70-40BE-A72E-4742D5DFFC6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4841,7 +5390,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA9798F-A4E7-4D4C-8510-FC534F154A24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A959AA-6F38-4C6B-957D-FEB6339EA21C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4891,7 +5440,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B38A69-C0C1-451B-BA3F-1F67A26DE98C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B6932E-10BE-4131-8B65-CF2FBC6140EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +5490,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135E392A-3716-4774-B8B5-65C708C0CE7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7623909-544B-4DBC-8F60-49F13A32643A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4991,7 +5540,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86A3818-7EF0-4642-8926-D77C2B65B920}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A59F3C-7427-401E-8498-5681837C3FB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5041,7 +5590,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2F6168-D500-44EC-BD76-BF5F980B5501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D33CC1-3F50-4851-8C2C-46E7EF146D93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5091,7 +5640,7 @@
         <xdr:cNvPr id="18" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4F3069-8F42-4349-ADD7-6AFC0F1A100C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF769DA-D50A-4A33-9BA4-64315816ED3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5141,7 +5690,7 @@
         <xdr:cNvPr id="20" name="그림 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0ADEB0-A8D8-4F68-A180-09E1BA0D106D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE2D1E3-D865-4D07-A67B-89EE435FBF1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5542,31 +6091,31 @@
         <v>28</v>
       </c>
       <c r="I3" s="77"/>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AB3" s="79" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AB3" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="39"/>
@@ -5621,19 +6170,19 @@
       <c r="AB4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="78" t="str">
+      <c r="AC4" s="90" t="str">
         <f>N5</f>
         <v>휴스틸</v>
       </c>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="K5" s="41">
         <v>1</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="83" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="41" t="str">
@@ -5707,7 +6256,7 @@
       <c r="K6" s="47">
         <v>2</v>
       </c>
-      <c r="L6" s="81"/>
+      <c r="L6" s="83"/>
       <c r="M6" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C3,6),"")</f>
         <v>011280</v>
@@ -5779,7 +6328,7 @@
       <c r="K7" s="47">
         <v>3</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C4,6),"")</f>
         <v>284740</v>
@@ -5851,7 +6400,7 @@
       <c r="K8" s="47">
         <v>4</v>
       </c>
-      <c r="L8" s="81"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C5,6),"")</f>
         <v>014915</v>
@@ -5935,7 +6484,7 @@
       <c r="K9" s="47">
         <v>5</v>
       </c>
-      <c r="L9" s="81"/>
+      <c r="L9" s="83"/>
       <c r="M9" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C6,6),"")</f>
         <v>000910</v>
@@ -6011,7 +6560,7 @@
       <c r="K10" s="47">
         <v>6</v>
       </c>
-      <c r="L10" s="81"/>
+      <c r="L10" s="83"/>
       <c r="M10" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C7,6),"")</f>
         <v>010770</v>
@@ -6083,7 +6632,7 @@
       <c r="K11" s="47">
         <v>7</v>
       </c>
-      <c r="L11" s="81"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C8,6),"")</f>
         <v>168490</v>
@@ -6155,7 +6704,7 @@
       <c r="K12" s="47">
         <v>8</v>
       </c>
-      <c r="L12" s="81"/>
+      <c r="L12" s="83"/>
       <c r="M12" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C9,6),"")</f>
         <v>020120</v>
@@ -6227,7 +6776,7 @@
       <c r="K13" s="47">
         <v>9</v>
       </c>
-      <c r="L13" s="81"/>
+      <c r="L13" s="83"/>
       <c r="M13" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C10,6),"")</f>
         <v>496770</v>
@@ -6299,7 +6848,7 @@
       <c r="K14" s="47">
         <v>10</v>
       </c>
-      <c r="L14" s="82"/>
+      <c r="L14" s="84"/>
       <c r="M14" s="41" t="str">
         <f>IFERROR(RIGHT(KOSPI!C11,6),"")</f>
         <v>003465</v>
@@ -6383,7 +6932,7 @@
       <c r="K15" s="41">
         <v>1</v>
       </c>
-      <c r="L15" s="80" t="s">
+      <c r="L15" s="82" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="47" t="str">
@@ -6442,9 +6991,9 @@
         <f>IF(ISBLANK(KOSDAQ!C2),"",HYPERLINK(KOSDAQ!C2, "▶"))</f>
         <v>▶</v>
       </c>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
       <c r="AE15" s="48"/>
       <c r="AF15" s="55"/>
     </row>
@@ -6452,7 +7001,7 @@
       <c r="K16" s="47">
         <v>2</v>
       </c>
-      <c r="L16" s="81"/>
+      <c r="L16" s="83"/>
       <c r="M16" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C3,6),"")</f>
         <v>389140</v>
@@ -6509,21 +7058,21 @@
         <f>IF(ISBLANK(KOSDAQ!C3),"",HYPERLINK(KOSDAQ!C3, "▶"))</f>
         <v>▶</v>
       </c>
-      <c r="AB16" s="79" t="s">
+      <c r="AB16" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="79" t="s">
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="AF16" s="79"/>
+      <c r="AF16" s="76"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K17" s="47">
         <v>3</v>
       </c>
-      <c r="L17" s="81"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C4,6),"")</f>
         <v>290690</v>
@@ -6598,7 +7147,7 @@
       <c r="K18" s="47">
         <v>4</v>
       </c>
-      <c r="L18" s="81"/>
+      <c r="L18" s="83"/>
       <c r="M18" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C5,6),"")</f>
         <v>065170</v>
@@ -6676,7 +7225,7 @@
       <c r="K19" s="47">
         <v>5</v>
       </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C6,6),"")</f>
         <v>241520</v>
@@ -6754,7 +7303,7 @@
       <c r="K20" s="47">
         <v>6</v>
       </c>
-      <c r="L20" s="81"/>
+      <c r="L20" s="83"/>
       <c r="M20" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C7,6),"")</f>
         <v>065370</v>
@@ -6844,7 +7393,7 @@
       <c r="K21" s="47">
         <v>7</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C8,6),"")</f>
         <v>040350</v>
@@ -6922,7 +7471,7 @@
       <c r="K22" s="47">
         <v>8</v>
       </c>
-      <c r="L22" s="81"/>
+      <c r="L22" s="83"/>
       <c r="M22" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C9,6),"")</f>
         <v>408900</v>
@@ -7000,7 +7549,7 @@
       <c r="K23" s="47">
         <v>9</v>
       </c>
-      <c r="L23" s="81"/>
+      <c r="L23" s="83"/>
       <c r="M23" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C10,6),"")</f>
         <v>317770</v>
@@ -7066,16 +7615,16 @@
         <f t="array" ref="AD23">IFERROR(HYPERLINK(INDEX(종목별전자공시!$D$2:$D$200, MATCH(1,--($AC$4=종목별전자공시!$C$2:$C$200)*(ROWS($A$1:A6)=종목별전자공시!$A$2:$A$200),0)),"▶"),"")</f>
         <v/>
       </c>
-      <c r="AE23" s="79" t="s">
+      <c r="AE23" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="AF23" s="79"/>
+      <c r="AF23" s="76"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="K24" s="47">
         <v>10</v>
       </c>
-      <c r="L24" s="82"/>
+      <c r="L24" s="84"/>
       <c r="M24" s="47" t="str">
         <f>IFERROR(RIGHT(KOSDAQ!C11,6),"")</f>
         <v>113810</v>
@@ -7141,11 +7690,11 @@
         <f t="array" ref="AD24">IFERROR(HYPERLINK(INDEX(종목별전자공시!$D$2:$D$200, MATCH(1,--($AC$4=종목별전자공시!$C$2:$C$200)*(ROWS($A$1:A7)=종목별전자공시!$A$2:$A$200),0)),"▶"),"")</f>
         <v/>
       </c>
-      <c r="AE24" s="84" t="str">
+      <c r="AE24" s="86" t="str">
         <f>HYPERLINK("https://www.bok.or.kr/static/jslibrary/pdfjs/viewer.html?file=%2FfileSrc%2Fportal%2F8758a03a95cd4447ba5efc3c7daea835%2F1%2F1e6b683990924cddb7f10e8e483b35a4.pdf","2025년 2월 경제전망보고서(Indigo Book)_FFF.pdf")</f>
         <v>2025년 2월 경제전망보고서(Indigo Book)_FFF.pdf</v>
       </c>
-      <c r="AF24" s="85"/>
+      <c r="AF24" s="87"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="K25" s="60"/>
@@ -7173,66 +7722,66 @@
         <f t="array" ref="AD25">IFERROR(HYPERLINK(INDEX(종목별전자공시!$D$2:$D$200, MATCH(1,--($AC$4=종목별전자공시!$C$2:$C$200)*(ROWS($A$1:A8)=종목별전자공시!$A$2:$A$200),0)),"▶"),"")</f>
         <v/>
       </c>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
+      <c r="AE25" s="88"/>
+      <c r="AF25" s="88"/>
     </row>
     <row r="26" spans="1:33" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="K27" s="79" t="s">
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="K27" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AB27" s="79" t="s">
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AB27" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K28" s="88" t="s">
+      <c r="K28" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
       <c r="AB28" s="38" t="s">
         <v>26</v>
       </c>
@@ -7256,103 +7805,103 @@
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
       <c r="J29" s="60"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
       <c r="AA29" s="61"/>
       <c r="AB29" s="64" t="str">
         <f t="array" ref="AB29">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A1))),"")</f>
-        <v/>
+        <v>[특징주]태림포장, '아쎄따'와 군용 골판지 드론 개발에 급등</v>
       </c>
       <c r="AC29" s="65"/>
       <c r="AD29" s="65"/>
       <c r="AE29" s="66" t="str">
         <f t="array" ref="AE29">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A1))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF29" s="64" t="str">
         <f t="array" ref="AF29">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A1))),"")</f>
-        <v/>
+        <v>태림포장</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
       <c r="AA30" s="61"/>
       <c r="AB30" s="64" t="str">
         <f t="array" ref="AB30">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A2))),"")</f>
-        <v/>
+        <v>[ET라씨로]쿠쿠홈시스, 4분기 호실적에 상승세</v>
       </c>
       <c r="AC30" s="65"/>
       <c r="AD30" s="65"/>
       <c r="AE30" s="66" t="str">
         <f t="array" ref="AE30">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A2))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF30" s="64" t="str">
         <f t="array" ref="AF30">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A2))),"")</f>
-        <v/>
+        <v>쿠쿠홈시스</v>
       </c>
       <c r="AG30" s="61"/>
     </row>
     <row r="31" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
       <c r="AA31" s="61"/>
       <c r="AB31" s="64" t="str">
         <f t="array" ref="AB31">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A3))),"")</f>
-        <v/>
+        <v>트럼프 관세 압박에 희토류株 동반 강세</v>
       </c>
       <c r="AC31" s="65"/>
       <c r="AD31" s="65"/>
       <c r="AE31" s="66" t="str">
         <f t="array" ref="AE31">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A3))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF31" s="64" t="str">
         <f t="array" ref="AF31">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A3))),"")</f>
-        <v/>
+        <v>유니온</v>
       </c>
       <c r="AG31" s="61"/>
     </row>
@@ -7382,26 +7931,26 @@
       <c r="AA32" s="61"/>
       <c r="AB32" s="64" t="str">
         <f t="array" ref="AB32">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A4))),"")</f>
-        <v/>
+        <v>"95% 급등"…지난달 코스피 수익률 1위는</v>
       </c>
       <c r="AC32" s="65"/>
       <c r="AD32" s="65"/>
       <c r="AE32" s="66" t="str">
         <f t="array" ref="AE32">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A4))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF32" s="64" t="str">
         <f t="array" ref="AF32">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A4))),"")</f>
-        <v/>
+        <v>평화홀딩스</v>
       </c>
       <c r="AG32" s="61"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K33" s="76" t="str">
+      <c r="K33" s="78" t="str">
         <f>IFERROR(주요뉴스!$D2,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L33" s="76"/>
+      <c r="L33" s="78"/>
       <c r="M33" s="61" t="str">
         <f>IFERROR(주요뉴스!$A2,"")</f>
         <v>미국 진출한 '망고딸기'…K-딸기 신품종 수출에 로열티까지</v>
@@ -7425,26 +7974,26 @@
       <c r="AA33" s="61"/>
       <c r="AB33" s="64" t="str">
         <f t="array" ref="AB33">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A5))),"")</f>
-        <v/>
+        <v>‘美 관세 정책 불확실성’ 속 3%대 하락…11거래일 만에 740선[코...</v>
       </c>
       <c r="AC33" s="65"/>
       <c r="AD33" s="65"/>
       <c r="AE33" s="66" t="str">
         <f t="array" ref="AE33">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A5))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF33" s="64" t="str">
         <f t="array" ref="AF33">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A5))),"")</f>
-        <v/>
+        <v>아이티센엔텍</v>
       </c>
       <c r="AG33" s="61"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K34" s="76" t="str">
+      <c r="K34" s="78" t="str">
         <f>IFERROR(주요뉴스!$D3,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L34" s="76"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="61" t="str">
         <f>IFERROR(주요뉴스!$A3,"")</f>
         <v>"압축성장이 키운 한탕주의"…'김치 프리미엄' 주의보</v>
@@ -7468,26 +8017,26 @@
       <c r="AA34" s="61"/>
       <c r="AB34" s="64" t="str">
         <f t="array" ref="AB34">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A6))),"")</f>
-        <v/>
+        <v>[특징주]TSMC-메타-퓨리오사 '삼각연대'…포바이포, 핵심 기술 파트...</v>
       </c>
       <c r="AC34" s="65"/>
       <c r="AD34" s="65"/>
       <c r="AE34" s="66" t="str">
         <f t="array" ref="AE34">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A6))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF34" s="64" t="str">
         <f t="array" ref="AF34">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A6))),"")</f>
-        <v/>
+        <v>포바이포</v>
       </c>
       <c r="AG34" s="61"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K35" s="76" t="str">
+      <c r="K35" s="78" t="str">
         <f>IFERROR(주요뉴스!$D4,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L35" s="76"/>
+      <c r="L35" s="78"/>
       <c r="M35" s="61" t="str">
         <f>IFERROR(주요뉴스!$A4,"")</f>
         <v>라이브 쇼에 맞춤 육수…쿠팡 맞서 오프라인 강점 부각</v>
@@ -7511,26 +8060,26 @@
       <c r="AA35" s="61"/>
       <c r="AB35" s="64" t="str">
         <f t="array" ref="AB35">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A7))),"")</f>
-        <v/>
+        <v>‘美 관세 정책 불확실성’ 속 3%대 하락…11거래일 만에 740선[코...</v>
       </c>
       <c r="AC35" s="65"/>
       <c r="AD35" s="65"/>
       <c r="AE35" s="66" t="str">
         <f t="array" ref="AE35">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A7))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF35" s="64" t="str">
         <f t="array" ref="AF35">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A7))),"")</f>
-        <v/>
+        <v>비엘팜텍</v>
       </c>
       <c r="AG35" s="61"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K36" s="76" t="str">
+      <c r="K36" s="78" t="str">
         <f>IFERROR(주요뉴스!$D5,"")</f>
         <v xml:space="preserve">MBN </v>
       </c>
-      <c r="L36" s="76"/>
+      <c r="L36" s="78"/>
       <c r="M36" s="61" t="str">
         <f>IFERROR(주요뉴스!$A5,"")</f>
         <v>어렵게 박사 땄지만 "10명 중 3명은 백수 박사"</v>
@@ -7554,26 +8103,26 @@
       <c r="AA36" s="61"/>
       <c r="AB36" s="64" t="str">
         <f t="array" ref="AB36">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A8))),"")</f>
-        <v/>
+        <v>엔비디아 추월한 효율…메타이어 TSMC도 퓨리오사AI '눈독'</v>
       </c>
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="66" t="str">
         <f t="array" ref="AE36">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A8))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF36" s="64" t="str">
         <f t="array" ref="AF36">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A8))),"")</f>
-        <v/>
+        <v>DSC인베스트먼트</v>
       </c>
       <c r="AG36" s="61"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K37" s="76" t="str">
+      <c r="K37" s="78" t="str">
         <f>IFERROR(주요뉴스!$D6,"")</f>
         <v xml:space="preserve">한국경제 </v>
       </c>
-      <c r="L37" s="76"/>
+      <c r="L37" s="78"/>
       <c r="M37" s="61" t="str">
         <f>IFERROR(주요뉴스!$A6,"")</f>
         <v>불닭만 먹는 게 아니었네…중국인들 열광한 'K라면'</v>
@@ -7597,27 +8146,27 @@
       <c r="AA37" s="61"/>
       <c r="AB37" s="64" t="str">
         <f t="array" ref="AB37">IFERROR(INDEX(종목별뉴스공시!E:E, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A9))),"")</f>
-        <v/>
+        <v>엑스페릭스, 퓨리오사와 AI 가속기 최적화 협력…글로벌 경쟁 우위 선....</v>
       </c>
       <c r="AC37" s="65"/>
       <c r="AD37" s="65"/>
       <c r="AE37" s="66" t="str">
         <f t="array" ref="AE37">IFERROR(HYPERLINK(INDEX(종목별뉴스공시!D:D, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A9))),"▶"),"")</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AF37" s="64" t="str">
         <f t="array" ref="AF37">IFERROR(INDEX(종목별뉴스공시!C:C, SMALL(IF(종목별뉴스공시!A:A=1,ROW(종목별뉴스공시!A:A)),ROWS($A$1:A9))),"")</f>
-        <v/>
+        <v>엑스페릭스</v>
       </c>
       <c r="AG37" s="61"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="67"/>
-      <c r="K38" s="76" t="str">
+      <c r="K38" s="78" t="str">
         <f>IFERROR(주요뉴스!$D7,"")</f>
         <v xml:space="preserve">파이낸셜뉴스 </v>
       </c>
-      <c r="L38" s="76"/>
+      <c r="L38" s="78"/>
       <c r="M38" s="61" t="str">
         <f>IFERROR(주요뉴스!$A7,"")</f>
         <v>코스피 이달 2470~2820 예상… 美FOMC·中양회 주목</v>
@@ -7657,11 +8206,11 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="68"/>
-      <c r="K39" s="76" t="str">
+      <c r="K39" s="78" t="str">
         <f>IFERROR(주요뉴스!$D8,"")</f>
         <v xml:space="preserve">파이낸셜뉴스 </v>
       </c>
-      <c r="L39" s="76"/>
+      <c r="L39" s="78"/>
       <c r="M39" s="61" t="str">
         <f>IFERROR(주요뉴스!$A8,"")</f>
         <v>외국인 7개월째 팔자… 2007년 이후 최장</v>
@@ -7701,11 +8250,11 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="68"/>
-      <c r="K40" s="76" t="str">
+      <c r="K40" s="78" t="str">
         <f>IFERROR(주요뉴스!$D9,"")</f>
         <v xml:space="preserve">한국경제 </v>
       </c>
-      <c r="L40" s="76"/>
+      <c r="L40" s="78"/>
       <c r="M40" s="61" t="str">
         <f>IFERROR(주요뉴스!$A9,"")</f>
         <v>"주사 한 방에 아기 피부 된다"…톱스타들 사이 '난리'</v>
@@ -7745,11 +8294,11 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="68"/>
-      <c r="K41" s="76" t="str">
+      <c r="K41" s="78" t="str">
         <f>IFERROR(주요뉴스!$D10,"")</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L41" s="76"/>
+      <c r="L41" s="78"/>
       <c r="M41" s="61" t="str">
         <f>IFERROR(주요뉴스!$A10,"")</f>
         <v>美 고용보고서·中 양회 주목</v>
@@ -7789,11 +8338,11 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="68"/>
-      <c r="K42" s="76" t="str">
+      <c r="K42" s="78" t="str">
         <f>IFERROR(주요뉴스!$D11,"")</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L42" s="76"/>
+      <c r="L42" s="78"/>
       <c r="M42" s="61" t="str">
         <f>IFERROR(주요뉴스!$A11,"")</f>
         <v>"작년 가상자산 해킹, 절반 이상이 北소행"</v>
@@ -7842,11 +8391,11 @@
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
-      <c r="K43" s="76" t="str">
+      <c r="K43" s="78" t="str">
         <f>IFERROR(주요뉴스!$D12,"")</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L43" s="76"/>
+      <c r="L43" s="78"/>
       <c r="M43" s="61" t="str">
         <f>IFERROR(주요뉴스!$A12,"")</f>
         <v>존재감 약해진 삼성전자 시총 비중 15%대로 털썩</v>
@@ -7885,11 +8434,11 @@
       <c r="AG43" s="61"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K44" s="76" t="str">
+      <c r="K44" s="78" t="str">
         <f>IFERROR(주요뉴스!$D13,"")</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L44" s="76"/>
+      <c r="L44" s="78"/>
       <c r="M44" s="61" t="str">
         <f>IFERROR(주요뉴스!$A13,"")</f>
         <v>"버핏이 더 산대" 日상사株 더 올랐다</v>
@@ -7928,11 +8477,11 @@
       <c r="AG44" s="61"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K45" s="76" t="str">
+      <c r="K45" s="78" t="str">
         <f>IFERROR(주요뉴스!$D14,"")</f>
         <v xml:space="preserve">뉴시스 </v>
       </c>
-      <c r="L45" s="76"/>
+      <c r="L45" s="78"/>
       <c r="M45" s="61" t="str">
         <f>IFERROR(주요뉴스!$A14,"")</f>
         <v>"서학개미 모셔라" 한국 찾는 美 ATS·브로커들</v>
@@ -7971,11 +8520,11 @@
       <c r="AG45" s="61"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K46" s="76" t="str">
+      <c r="K46" s="78" t="str">
         <f>IFERROR(주요뉴스!$D15,"")</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L46" s="76"/>
+      <c r="L46" s="78"/>
       <c r="M46" s="61" t="str">
         <f>IFERROR(주요뉴스!$A15,"")</f>
         <v>[단독] ‘가입비 1억’ 요구한 넥스트레이드···인하 요구 불발에 중소형사 결국 납부</v>
@@ -8014,11 +8563,11 @@
       <c r="AG46" s="61"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K47" s="76" t="str">
+      <c r="K47" s="78" t="str">
         <f>IFERROR(주요뉴스!$D16,"")</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L47" s="76"/>
+      <c r="L47" s="78"/>
       <c r="M47" s="61" t="str">
         <f>IFERROR(주요뉴스!$A16,"")</f>
         <v>트럼프 관세 강행 여부 속 중국 양회 주목 [붐앤쇼크]</v>
@@ -8057,11 +8606,11 @@
       <c r="AG47" s="61"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="K48" s="76" t="str">
+      <c r="K48" s="78" t="str">
         <f>IFERROR(주요뉴스!$D17,"")</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L48" s="76"/>
+      <c r="L48" s="78"/>
       <c r="M48" s="61" t="str">
         <f>IFERROR(주요뉴스!$A17,"")</f>
         <v>연초 신규 ETF 수익률 국내주식형 ‘완승’…‘해외’ 테마 잡은 운용사들 발등에 불</v>
@@ -8105,23 +8654,17 @@
     <row r="51" spans="31:31" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K27:Z27"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="K28:Z31"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AE24:AF25"/>
-    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="E3:F3"/>
@@ -8138,17 +8681,23 @@
     <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="K3:Z3"/>
     <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE24:AF25"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K27:Z27"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="K28:Z31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -27317,109 +27866,408 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="31"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>861</v>
+      </c>
       <c r="H2" s="7" t="str">
         <f>IF(ISBLANK($D2),"",HYPERLINK($D2,"▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G3" s="31"/>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>878</v>
+      </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H66" si="0">IF(ISBLANK($D3),"",HYPERLINK($D3,"▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G4" s="31"/>
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>879</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>881</v>
+      </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G5" s="31"/>
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>891</v>
+      </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="31"/>
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>894</v>
+      </c>
       <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>925</v>
+      </c>
       <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="31"/>
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>928</v>
+      </c>
       <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="31"/>
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>932</v>
+      </c>
       <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="31"/>
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>936</v>
+      </c>
       <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="31"/>
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>940</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>942</v>
+      </c>
       <c r="H11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G12" s="31"/>
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>925</v>
+      </c>
       <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G13" s="31"/>
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>928</v>
+      </c>
       <c r="H13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="31"/>
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>971</v>
+      </c>
       <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="31"/>
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>991</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>994</v>
+      </c>
       <c r="H15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G16" s="31"/>
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>1021</v>
+      </c>
       <c r="H16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.3">
@@ -28589,496 +29437,1965 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="31"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>864</v>
+      </c>
       <c r="H2" s="7" t="str">
         <f>IF(ISBLANK($D2),"",HYPERLINK($D2,"▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G3" s="31"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>865</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>864</v>
+      </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H66" si="0">IF(ISBLANK($D3),"",HYPERLINK($D3,"▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G4" s="31"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>867</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>864</v>
+      </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G5" s="31"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>869</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>871</v>
+      </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="31"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>874</v>
+      </c>
       <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>884</v>
+      </c>
       <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="31"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>887</v>
+      </c>
       <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="31"/>
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>871</v>
+      </c>
       <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="31"/>
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>895</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>864</v>
+      </c>
       <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="31"/>
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>884</v>
+      </c>
       <c r="H11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G12" s="31"/>
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>902</v>
+      </c>
       <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G13" s="31"/>
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>905</v>
+      </c>
       <c r="H13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="31"/>
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>905</v>
+      </c>
       <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="31"/>
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>864</v>
+      </c>
       <c r="H15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>▶</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G16" s="31"/>
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>909</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>864</v>
+      </c>
       <c r="H16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>871</v>
+      </c>
       <c r="H17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G18" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>871</v>
+      </c>
       <c r="H18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>871</v>
+      </c>
       <c r="H19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>864</v>
+      </c>
       <c r="H20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G21" s="31"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>887</v>
+      </c>
       <c r="H21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>918</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>902</v>
+      </c>
       <c r="H22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>902</v>
+      </c>
       <c r="H23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>937</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>938</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>944</v>
+      </c>
       <c r="H26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>954</v>
+      </c>
       <c r="H30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>954</v>
+      </c>
       <c r="H31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>944</v>
+      </c>
       <c r="H32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>871</v>
+      </c>
       <c r="H33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>960</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>871</v>
+      </c>
       <c r="H34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>871</v>
+      </c>
       <c r="H35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>963</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>964</v>
+      </c>
       <c r="H36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>965</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>968</v>
+      </c>
       <c r="H37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>972</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>902</v>
+      </c>
       <c r="H43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>983</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>984</v>
+      </c>
       <c r="H44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>874</v>
+      </c>
       <c r="H45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>987</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>874</v>
+      </c>
       <c r="H46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>989</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>874</v>
+      </c>
       <c r="H47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>995</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>944</v>
+      </c>
       <c r="H48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>999</v>
+      </c>
       <c r="H49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>1002</v>
+      </c>
       <c r="H50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>954</v>
+      </c>
       <c r="H51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>984</v>
+      </c>
       <c r="H52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>1007</v>
+      </c>
       <c r="H53" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>1007</v>
+      </c>
       <c r="H54" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>887</v>
+      </c>
       <c r="H55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>954</v>
+      </c>
       <c r="H56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E57" s="18"/>
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>984</v>
+      </c>
       <c r="H57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>944</v>
+      </c>
       <c r="H58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>884</v>
+      </c>
       <c r="H59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>1007</v>
+      </c>
       <c r="H60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>864</v>
+      </c>
       <c r="H61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>887</v>
+      </c>
       <c r="H62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>887</v>
+      </c>
       <c r="H63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>887</v>
+      </c>
       <c r="H64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>902</v>
+      </c>
       <c r="H65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>964</v>
+      </c>
       <c r="H66" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>1034</v>
+      </c>
       <c r="H67" s="7" t="str">
         <f t="shared" ref="H67:H130" si="1">IF(ISBLANK($D67),"",HYPERLINK($D67,"▶"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>1034</v>
+      </c>
       <c r="H68" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>9</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>1034</v>
+      </c>
       <c r="H69" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>887</v>
+      </c>
       <c r="H70" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>887</v>
+      </c>
       <c r="H71" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>887</v>
+      </c>
       <c r="H72" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+        <v>▶</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H73" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H74" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H75" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H76" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H77" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H78" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H79" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H80" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
